--- a/biology/Zoologie/Bengalia/Bengalia.xlsx
+++ b/biology/Zoologie/Bengalia/Bengalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bengalia[1] est, d'après la classification communément admise, un genre de diptères appartenant à la famille des Calliphoridae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bengalia est, d'après la classification communément admise, un genre de diptères appartenant à la famille des Calliphoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes du genre Bengalia sont des prédateurs agressifs, qui se nourrissent principalement de termites, de pupes de fourmis, voire de proies de fourmis volées. On croise ce genre essentiellement en zones afrotropicale et orientale, bien qu'une espèce ait été découverte en Australie[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes du genre Bengalia sont des prédateurs agressifs, qui se nourrissent principalement de termites, de pupes de fourmis, voire de proies de fourmis volées. On croise ce genre essentiellement en zones afrotropicale et orientale, bien qu'une espèce ait été découverte en Australie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre des Bengalia comprend en 2009 76 espèces[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre des Bengalia comprend en 2009 76 espèces :
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Controverse sur la classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une autre classification, avancée par Andy Z. Lehrer, est sujet à controverse[4]. Dans ses travaux datant de 1970[37], 2003[38] et 2005[39], Andy Z. Lehrer conçoit que ce genre représente le genre-type d'une nouvelle famille monophylétique, les Bengaliidae[40], qui se distinguerait de la famille Calliphoridae par les caractères somatiques essentiels et notamment par ceux des structures buccales, postabdominales et génitales, ainsi que par des caractères bio-écologiques. Ces travaux ne s'appuient sur aucune analyse génétique.
-D'après ses recherches morphologique des structures postabdominales[38] et surtout des genitalia mâles[6], le genre Bengalia s. str. comprend seulement dix espèces du point de vue taxonomique. Elles garderait le type de structure des genitalia de l'espèce-type Bengalia labiata [21] de la sous-famille Bengaliinae[41], présenté dans la figure 1 et qui diffère profondément des autres types de genitalia de la famille. Les autres types de structures phallosomiques sont représentés dans les figures 2 à 4: Afridigalia tibiaria (Villeneuve) [fig. 2] pour la sous-famille Afridigaliinae[6], Gangelomyia xanthopyga (Senior-White) [fig. 3] pour la sous-famille Gangelomyiinae [6] et Maraviola spinifemorata (Villeneuve [fig. 4] pour la sous-famille Maraviolinae [6], qui marquent les taxons super-spécifiques et qui groupent les espèces connues et inconnues par les auteurs classiques.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une autre classification, avancée par Andy Z. Lehrer, est sujet à controverse. Dans ses travaux datant de 1970, 2003 et 2005, Andy Z. Lehrer conçoit que ce genre représente le genre-type d'une nouvelle famille monophylétique, les Bengaliidae, qui se distinguerait de la famille Calliphoridae par les caractères somatiques essentiels et notamment par ceux des structures buccales, postabdominales et génitales, ainsi que par des caractères bio-écologiques. Ces travaux ne s'appuient sur aucune analyse génétique.
+D'après ses recherches morphologique des structures postabdominales et surtout des genitalia mâles, le genre Bengalia s. str. comprend seulement dix espèces du point de vue taxonomique. Elles garderait le type de structure des genitalia de l'espèce-type Bengalia labiata  de la sous-famille Bengaliinae, présenté dans la figure 1 et qui diffère profondément des autres types de genitalia de la famille. Les autres types de structures phallosomiques sont représentés dans les figures 2 à 4: Afridigalia tibiaria (Villeneuve) [fig. 2] pour la sous-famille Afridigaliinae, Gangelomyia xanthopyga (Senior-White) [fig. 3] pour la sous-famille Gangelomyiinae  et Maraviola spinifemorata (Villeneuve [fig. 4] pour la sous-famille Maraviolinae , qui marquent les taxons super-spécifiques et qui groupent les espèces connues et inconnues par les auteurs classiques.
 			Fig. 1.Bengalia labiata Robineau-Desvoidy, 1830 (selon Lehrer)
 			Fig. 2. Afridigalia tibiaria (Villeneuve), 1926 (selon Lehrer)
 			Fig. 3. Gangelomyia xanthopyga (Senior-White), 1924 (selon Lehrer)
